--- a/data/factors/factor11.xlsx
+++ b/data/factors/factor11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF606D4-256E-42B7-931E-A9CD81877BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503538F-436D-46F2-92A6-6519E6D1AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:A115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A115">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A115">
     <sortCondition ref="A1:A115"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
